--- a/MasterData/8. AmortTemplateChiller.xlsx
+++ b/MasterData/8. AmortTemplateChiller.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="59">
   <si>
     <t>AmortTemplateNo</t>
   </si>
@@ -5093,7 +5093,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:L110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5158,7 +5160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>102</v>
       </c>
@@ -5199,12 +5201,11 @@
         <f>CONCATENATE(A2,B2,C2,D2)</f>
         <v>102Acquired MoviesAcquired MiniSeriesAcquired Movies</v>
       </c>
-      <c r="N2" t="e">
-        <f>VLOOKUP(M2,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -5245,12 +5246,11 @@
         <f t="shared" ref="M3:M66" si="0">CONCATENATE(A3,B3,C3,D3)</f>
         <v>102Acquired MoviesDocumentaryAcquired Movies</v>
       </c>
-      <c r="N3" t="e">
-        <f>VLOOKUP(M3,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
@@ -5291,12 +5291,11 @@
         <f t="shared" si="0"/>
         <v>102Acquired MoviesMoviesAcquired Movies</v>
       </c>
-      <c r="N4" t="e">
-        <f>VLOOKUP(M4,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>102</v>
       </c>
@@ -5337,12 +5336,11 @@
         <f t="shared" si="0"/>
         <v>102Acquired MoviesOriginalAcquired Movies</v>
       </c>
-      <c r="N5" t="e">
-        <f>VLOOKUP(M5,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -5383,9 +5381,8 @@
         <f t="shared" si="0"/>
         <v>102Acquired MoviesOriginal MiniSeriesAcquired Movies</v>
       </c>
-      <c r="N6" t="e">
-        <f>VLOOKUP(M6,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -5433,7 +5430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>102</v>
       </c>
@@ -5474,12 +5471,11 @@
         <f t="shared" si="0"/>
         <v>102Acquired MoviesSpecialAcquired Movies</v>
       </c>
-      <c r="N8" t="e">
-        <f>VLOOKUP(M8,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>103</v>
       </c>
@@ -5520,9 +5516,8 @@
         <f t="shared" si="0"/>
         <v>103Acquired SeriesAcquired SpecialsAcquired Series</v>
       </c>
-      <c r="N9" t="e">
-        <f>VLOOKUP(M9,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -5570,7 +5565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>103</v>
       </c>
@@ -5611,9 +5606,8 @@
         <f t="shared" si="0"/>
         <v>103Acquired SeriesConcertAcquired Series</v>
       </c>
-      <c r="N11" t="e">
-        <f>VLOOKUP(M11,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -5709,7 +5703,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>103</v>
       </c>
@@ -5750,9 +5744,8 @@
         <f t="shared" si="0"/>
         <v>103Acquired SeriesEventsAcquired Series</v>
       </c>
-      <c r="N14" t="e">
-        <f>VLOOKUP(M14,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -5800,7 +5793,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>103</v>
       </c>
@@ -5841,12 +5834,11 @@
         <f t="shared" si="0"/>
         <v>103Acquired SeriesOriginal SeriesAcquired Series</v>
       </c>
-      <c r="N16" t="e">
-        <f>VLOOKUP(M16,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>103</v>
       </c>
@@ -5887,9 +5879,8 @@
         <f t="shared" si="0"/>
         <v>103Acquired SeriesSeriesAcquired Series</v>
       </c>
-      <c r="N17" t="e">
-        <f>VLOOKUP(M17,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6162,7 +6153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>105</v>
       </c>
@@ -6203,9 +6194,8 @@
         <f t="shared" si="0"/>
         <v>105Acquired Originals (old)OriginalAcquired Originals</v>
       </c>
-      <c r="N24" t="e">
-        <f>VLOOKUP(M24,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6526,7 +6516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>108</v>
       </c>
@@ -6567,9 +6557,8 @@
         <f t="shared" si="0"/>
         <v>108Original MoviesDocumentaryOriginal Movies</v>
       </c>
-      <c r="N32" t="e">
-        <f>VLOOKUP(M32,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6662,7 +6651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>108</v>
       </c>
@@ -6703,9 +6692,8 @@
         <f t="shared" si="0"/>
         <v>108Original MoviesOriginal MiniSeriesOriginal Movies</v>
       </c>
-      <c r="N35" t="e">
-        <f>VLOOKUP(M35,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6753,7 +6741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>108</v>
       </c>
@@ -6794,12 +6782,11 @@
         <f t="shared" si="0"/>
         <v>108Original MoviesPilotOriginal Movies</v>
       </c>
-      <c r="N37" t="e">
-        <f>VLOOKUP(M37,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>108</v>
       </c>
@@ -6840,9 +6827,8 @@
         <f t="shared" si="0"/>
         <v>108Original MoviesSeriesOriginal Movies</v>
       </c>
-      <c r="N38" t="e">
-        <f>VLOOKUP(M38,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6890,7 +6876,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>110</v>
       </c>
@@ -6936,7 +6922,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>110</v>
       </c>
@@ -6982,7 +6968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>110</v>
       </c>
@@ -7076,7 +7062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>110</v>
       </c>
@@ -7218,7 +7204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>110</v>
       </c>
@@ -7264,7 +7250,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>110</v>
       </c>
@@ -7310,7 +7296,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>110</v>
       </c>
@@ -7356,7 +7342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>110</v>
       </c>
@@ -7402,7 +7388,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>110</v>
       </c>
@@ -7448,7 +7434,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>110</v>
       </c>
@@ -7584,7 +7570,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>111</v>
       </c>
@@ -7625,9 +7611,8 @@
         <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)DocumentaryOriginal Series</v>
       </c>
-      <c r="N55" t="e">
-        <f>VLOOKUP(M55,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N55" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -7723,7 +7708,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>111</v>
       </c>
@@ -7764,9 +7749,8 @@
         <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)MoviesOriginal Series</v>
       </c>
-      <c r="N58" t="e">
-        <f>VLOOKUP(M58,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N58" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -7859,7 +7843,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>111</v>
       </c>
@@ -7900,9 +7884,8 @@
         <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)PilotOriginal Series</v>
       </c>
-      <c r="N61" t="e">
-        <f>VLOOKUP(M61,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N61" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -8085,7 +8068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>112</v>
       </c>
@@ -8126,12 +8109,11 @@
         <f t="shared" si="0"/>
         <v>112Original Series (Season 4)Bio/Clip (E)Original Series</v>
       </c>
-      <c r="N66" t="e">
-        <f>VLOOKUP(M66,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>112</v>
       </c>
@@ -8172,12 +8154,11 @@
         <f t="shared" ref="M67:M125" si="1">CONCATENATE(A67,B67,C67,D67)</f>
         <v>112Original Series (Season 4)ConcertOriginal Series</v>
       </c>
-      <c r="N67" t="e">
-        <f>VLOOKUP(M67,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>112</v>
       </c>
@@ -8218,9 +8199,8 @@
         <f t="shared" si="1"/>
         <v>112Original Series (Season 4)DocumentaryOriginal Series</v>
       </c>
-      <c r="N68" t="e">
-        <f>VLOOKUP(M68,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N68" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -8271,7 +8251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>112</v>
       </c>
@@ -8312,12 +8292,11 @@
         <f t="shared" si="1"/>
         <v>112Original Series (Season 4)EventsOriginal Series</v>
       </c>
-      <c r="N70" t="e">
-        <f>VLOOKUP(M70,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>112</v>
       </c>
@@ -8358,12 +8337,11 @@
         <f t="shared" si="1"/>
         <v>112Original Series (Season 4)MoviesOriginal Series</v>
       </c>
-      <c r="N71" t="e">
-        <f>VLOOKUP(M71,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>112</v>
       </c>
@@ -8404,12 +8382,11 @@
         <f t="shared" si="1"/>
         <v>112Original Series (Season 4)OriginalOriginal Series</v>
       </c>
-      <c r="N72" t="e">
-        <f>VLOOKUP(M72,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>112</v>
       </c>
@@ -8450,12 +8427,11 @@
         <f t="shared" si="1"/>
         <v>112Original Series (Season 4)Original SeriesOriginal Series</v>
       </c>
-      <c r="N73" t="e">
-        <f>VLOOKUP(M73,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>112</v>
       </c>
@@ -8496,9 +8472,8 @@
         <f t="shared" si="1"/>
         <v>112Original Series (Season 4)PilotOriginal Series</v>
       </c>
-      <c r="N74" t="e">
-        <f>VLOOKUP(M74,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N74" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -8546,7 +8521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>112</v>
       </c>
@@ -8587,12 +8562,11 @@
         <f t="shared" si="1"/>
         <v>112Original Series (Season 4)SpecialOriginal Series</v>
       </c>
-      <c r="N76" t="e">
-        <f>VLOOKUP(M76,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>112</v>
       </c>
@@ -8633,9 +8607,8 @@
         <f t="shared" si="1"/>
         <v>112Original Series (Season 4)SportsOriginal Series</v>
       </c>
-      <c r="N77" t="e">
-        <f>VLOOKUP(M77,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N77" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -9857,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J104" t="s">
         <v>6</v>
@@ -9903,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J105" t="s">
         <v>6</v>
@@ -9949,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J106" t="s">
         <v>6</v>
@@ -9995,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J107" t="s">
         <v>6</v>
@@ -10041,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J108" t="s">
         <v>6</v>
@@ -10087,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J109" t="s">
         <v>6</v>
@@ -10133,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>43.332999999999998</v>
+        <v>43.33</v>
       </c>
       <c r="J110" t="s">
         <v>6</v>
@@ -10875,6 +10848,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O125">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="N"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="13">
       <filters>
         <filter val="#N/A"/>
@@ -10893,8 +10871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A53" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10941,7 +10919,7 @@
         <v>55</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE(A2,B2,C2,D2)</f>
+        <f t="shared" ref="F2:F31" si="0">CONCATENATE(A2,B2,C2,D2)</f>
         <v>112Original Series (Season 4)SeriesOriginal Series</v>
       </c>
     </row>
@@ -10962,7 +10940,7 @@
         <v>55</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE(A3,B3,C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>113Original Movies (Anonymous Rex)PilotOriginal Movies</v>
       </c>
     </row>
@@ -10983,7 +10961,7 @@
         <v>55</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(A4,B4,C4,D4)</f>
+        <f t="shared" si="0"/>
         <v>113Original Movies (Anonymous Rex)Original MiniSeriesOriginal Movies</v>
       </c>
     </row>
@@ -11004,7 +10982,7 @@
         <v>55</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE(A5,B5,C5,D5)</f>
+        <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)EventsOriginal Series</v>
       </c>
     </row>
@@ -11025,7 +11003,7 @@
         <v>55</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE(A6,B6,C6,D6)</f>
+        <f t="shared" si="0"/>
         <v>104Acquired MiniSeriesOriginal MiniSeriesAcquired MiniSeries</v>
       </c>
     </row>
@@ -11046,7 +11024,7 @@
         <v>55</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE(A7,B7,C7,D7)</f>
+        <f t="shared" si="0"/>
         <v>105Acquired Originals (old)MoviesAcquired Originals</v>
       </c>
     </row>
@@ -11067,7 +11045,7 @@
         <v>55</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE(A8,B8,C8,D8)</f>
+        <f t="shared" si="0"/>
         <v>105Acquired Originals (old)SeriesAcquired Originals</v>
       </c>
     </row>
@@ -11088,7 +11066,7 @@
         <v>55</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE(A9,B9,C9,D9)</f>
+        <f t="shared" si="0"/>
         <v>103Acquired SeriesMoviesAcquired Series</v>
       </c>
     </row>
@@ -11109,7 +11087,7 @@
         <v>55</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE(A10,B10,C10,D10)</f>
+        <f t="shared" si="0"/>
         <v>103Acquired SeriesSpecialAcquired Series</v>
       </c>
     </row>
@@ -11130,7 +11108,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE(A11,B11,C11,D11)</f>
+        <f t="shared" si="0"/>
         <v>105Acquired Originals (old)Original MiniSeriesAcquired Originals</v>
       </c>
     </row>
@@ -11151,7 +11129,7 @@
         <v>55</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE(A12,B12,C12,D12)</f>
+        <f t="shared" si="0"/>
         <v>102Acquired MoviesSeriesAcquired Movies</v>
       </c>
     </row>
@@ -11172,7 +11150,7 @@
         <v>55</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE(A13,B13,C13,D13)</f>
+        <f t="shared" si="0"/>
         <v>107SportsWrestlingSports</v>
       </c>
     </row>
@@ -11193,7 +11171,7 @@
         <v>55</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE(A14,B14,C14,D14)</f>
+        <f t="shared" si="0"/>
         <v>107SportsSpecialSports</v>
       </c>
     </row>
@@ -11214,7 +11192,7 @@
         <v>55</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE(A15,B15,C15,D15)</f>
+        <f t="shared" si="0"/>
         <v>108Original MoviesOriginalOriginal Movies</v>
       </c>
     </row>
@@ -11235,7 +11213,7 @@
         <v>55</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE(A16,B16,C16,D16)</f>
+        <f t="shared" si="0"/>
         <v>108Original MoviesMoviesOriginal Movies</v>
       </c>
     </row>
@@ -11256,7 +11234,7 @@
         <v>55</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE(A17,B17,C17,D17)</f>
+        <f t="shared" si="0"/>
         <v>113Original Movies (Anonymous Rex)Original SeriesOriginal Movies</v>
       </c>
     </row>
@@ -11277,7 +11255,7 @@
         <v>55</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE(A18,B18,C18,D18)</f>
+        <f t="shared" si="0"/>
         <v>103Acquired SeriesDocumentaryAcquired Series</v>
       </c>
     </row>
@@ -11298,7 +11276,7 @@
         <v>55</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE(A19,B19,C19,D19)</f>
+        <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)OriginalOriginal Series</v>
       </c>
     </row>
@@ -11319,7 +11297,7 @@
         <v>55</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE(A20,B20,C20,D20)</f>
+        <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)Bio/Clip (E)Original Series</v>
       </c>
     </row>
@@ -11340,7 +11318,7 @@
         <v>55</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE(A21,B21,C21,D21)</f>
+        <f t="shared" si="0"/>
         <v>104Acquired MiniSeriesMoviesAcquired MiniSeries</v>
       </c>
     </row>
@@ -11361,7 +11339,7 @@
         <v>55</v>
       </c>
       <c r="F22" t="str">
-        <f>CONCATENATE(A22,B22,C22,D22)</f>
+        <f t="shared" si="0"/>
         <v>107SportsSeriesSports</v>
       </c>
     </row>
@@ -11382,7 +11360,7 @@
         <v>55</v>
       </c>
       <c r="F23" t="str">
-        <f>CONCATENATE(A23,B23,C23,D23)</f>
+        <f t="shared" si="0"/>
         <v>109Original MiniSeriesOriginal MiniSeriesOriginal MiniSeries</v>
       </c>
     </row>
@@ -11403,7 +11381,7 @@
         <v>55</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE(A24,B24,C24,D24)</f>
+        <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)SeriesOriginal Series</v>
       </c>
     </row>
@@ -11424,7 +11402,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="str">
-        <f>CONCATENATE(A25,B25,C25,D25)</f>
+        <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)TopicalsOriginal Series</v>
       </c>
     </row>
@@ -11445,7 +11423,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="str">
-        <f>CONCATENATE(A26,B26,C26,D26)</f>
+        <f t="shared" si="0"/>
         <v>103Acquired SeriesBio/Clip (E)Acquired Series</v>
       </c>
     </row>
@@ -11466,7 +11444,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="str">
-        <f>CONCATENATE(A27,B27,C27,D27)</f>
+        <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)ConcertOriginal Series</v>
       </c>
     </row>
@@ -11487,7 +11465,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="str">
-        <f>CONCATENATE(A28,B28,C28,D28)</f>
+        <f t="shared" si="0"/>
         <v>111Original Series (Season 2-3)SpecialOriginal Series</v>
       </c>
     </row>
@@ -11508,7 +11486,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="str">
-        <f>CONCATENATE(A29,B29,C29,D29)</f>
+        <f t="shared" si="0"/>
         <v>114WrestlingWrestlingWrestling</v>
       </c>
     </row>
@@ -11529,7 +11507,7 @@
         <v>55</v>
       </c>
       <c r="F30" t="str">
-        <f>CONCATENATE(A30,B30,C30,D30)</f>
+        <f t="shared" si="0"/>
         <v>103Acquired SeriesSportsAcquired Series</v>
       </c>
     </row>
@@ -11550,7 +11528,7 @@
         <v>55</v>
       </c>
       <c r="F31" t="str">
-        <f>CONCATENATE(A31,B31,C31,D31)</f>
+        <f t="shared" si="0"/>
         <v>108Original MoviesOriginal SeriesOriginal Movies</v>
       </c>
     </row>
@@ -11571,7 +11549,7 @@
         <v>55</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" ref="F32:F94" si="0">CONCATENATE(A32,B32,C32,D32)</f>
+        <f t="shared" ref="F32:F94" si="1">CONCATENATE(A32,B32,C32,D32)</f>
         <v>111Original Series (Season 2-3)SportsOriginal Series</v>
       </c>
     </row>
@@ -11592,7 +11570,7 @@
         <v>55</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111Original Series (Season 2-3)Original SeriesOriginal Series</v>
       </c>
     </row>
@@ -11613,7 +11591,7 @@
         <v>55</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104Acquired MiniSeriesAcquired MiniSeriesAcquired MiniSeries</v>
       </c>
     </row>
@@ -11634,7 +11612,7 @@
         <v>55</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112Original Series (Season 4)TopicalsOriginal Series</v>
       </c>
     </row>
@@ -11655,355 +11633,790 @@
         <v>55</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107SportsSportsSports</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)DocumentaryOriginal Series</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)Bio/Clip (E)Original Series</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>111Original Series (Season 2-3)DocumentaryOriginal Series</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>111Original Series (Season 2-3)PilotOriginal Series</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>102Acquired MoviesOriginal MiniSeriesAcquired Movies</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>105Acquired Originals (old)OriginalAcquired Originals</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)SportsOriginal Series</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)OriginalOriginal Series</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>102Acquired MoviesAcquired MiniSeriesAcquired Movies</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>103Acquired SeriesConcertAcquired Series</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>103Acquired SeriesEventsAcquired Series</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)Original SeriesOriginal Series</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>111Original Series (Season 2-3)MoviesOriginal Series</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>108Original MoviesDocumentaryOriginal Movies</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>102Acquired MoviesOriginalAcquired Movies</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>102Acquired MoviesSpecialAcquired Movies</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>102Acquired MoviesDocumentaryAcquired Movies</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>108Original MoviesOriginal MiniSeriesOriginal Movies</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)MoviesOriginal Series</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>102Acquired MoviesMoviesAcquired Movies</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>103Acquired SeriesAcquired SpecialsAcquired Series</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>108Original MoviesPilotOriginal Movies</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)ConcertOriginal Series</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)EventsOriginal Series</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)PilotOriginal Series</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>108Original MoviesSeriesOriginal Movies</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>103Acquired SeriesOriginal SeriesAcquired Series</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>112Original Series (Season 4)SpecialOriginal Series</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>103Acquired SeriesSeriesAcquired Series</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F40" t="str">
-        <f t="shared" si="0"/>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F41" t="str">
-        <f t="shared" si="0"/>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F43" t="str">
-        <f t="shared" si="0"/>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F44" t="str">
-        <f t="shared" si="0"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F45" t="str">
-        <f t="shared" si="0"/>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F46" t="str">
-        <f t="shared" si="0"/>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F47" t="str">
-        <f t="shared" si="0"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F48" t="str">
-        <f t="shared" si="0"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" t="str">
-        <f t="shared" si="0"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" t="str">
-        <f t="shared" si="0"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F67" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F69" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F70" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F71" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F72" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F73" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F74" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F75" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F76" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F77" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F78" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F79" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F80" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>

--- a/MasterData/8. AmortTemplateChiller.xlsx
+++ b/MasterData/8. AmortTemplateChiller.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="59">
   <si>
     <t>AmortTemplateNo</t>
   </si>
@@ -5090,12 +5090,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:L110"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5160,7 +5157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>102</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -5250,7 +5247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
@@ -5295,7 +5292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>102</v>
       </c>
@@ -5340,7 +5337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -5385,7 +5382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>102</v>
       </c>
@@ -5430,7 +5427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>102</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>103</v>
       </c>
@@ -5520,7 +5517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>103</v>
       </c>
@@ -5565,7 +5562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>103</v>
       </c>
@@ -5610,7 +5607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>103</v>
       </c>
@@ -5655,7 +5652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>103</v>
       </c>
@@ -5703,7 +5700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>103</v>
       </c>
@@ -5748,7 +5745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>103</v>
       </c>
@@ -5793,7 +5790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>103</v>
       </c>
@@ -5838,7 +5835,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>103</v>
       </c>
@@ -5883,7 +5880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>103</v>
       </c>
@@ -5928,7 +5925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>103</v>
       </c>
@@ -5973,7 +5970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>104</v>
       </c>
@@ -6018,7 +6015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>104</v>
       </c>
@@ -6063,7 +6060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>104</v>
       </c>
@@ -6108,7 +6105,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>105</v>
       </c>
@@ -6153,7 +6150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>105</v>
       </c>
@@ -6198,7 +6195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>105</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>105</v>
       </c>
@@ -6288,7 +6285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>107</v>
       </c>
@@ -6336,7 +6333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>107</v>
       </c>
@@ -6381,7 +6378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>107</v>
       </c>
@@ -6426,7 +6423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>107</v>
       </c>
@@ -6471,7 +6468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>107</v>
       </c>
@@ -6516,7 +6513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>108</v>
       </c>
@@ -6561,7 +6558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>108</v>
       </c>
@@ -6606,7 +6603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>108</v>
       </c>
@@ -6651,7 +6648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>108</v>
       </c>
@@ -6696,7 +6693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>108</v>
       </c>
@@ -6741,7 +6738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>108</v>
       </c>
@@ -6786,7 +6783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>108</v>
       </c>
@@ -6831,7 +6828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>109</v>
       </c>
@@ -6876,7 +6873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>110</v>
       </c>
@@ -6917,12 +6914,11 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesBio/Clip (E)Original Series</v>
       </c>
-      <c r="N40" t="e">
-        <f>VLOOKUP(M40,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>110</v>
       </c>
@@ -6963,12 +6959,14 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesConcertOriginal Series</v>
       </c>
-      <c r="N41" t="e">
-        <f>VLOOKUP(M41,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>110</v>
       </c>
@@ -7009,12 +7007,11 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesDocumentaryOriginal Series</v>
       </c>
-      <c r="N42" t="e">
-        <f>VLOOKUP(M42,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>110</v>
       </c>
@@ -7062,7 +7059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>110</v>
       </c>
@@ -7103,12 +7100,14 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesEventsOriginal Series</v>
       </c>
-      <c r="N44" t="e">
-        <f>VLOOKUP(M44,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>110</v>
       </c>
@@ -7156,7 +7155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>110</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>110</v>
       </c>
@@ -7245,12 +7244,11 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesOriginal SeriesOriginal Series</v>
       </c>
-      <c r="N47" t="e">
-        <f>VLOOKUP(M47,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>110</v>
       </c>
@@ -7291,12 +7289,11 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesPilotOriginal Series</v>
       </c>
-      <c r="N48" t="e">
-        <f>VLOOKUP(M48,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>110</v>
       </c>
@@ -7337,12 +7334,11 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesSeriesOriginal Series</v>
       </c>
-      <c r="N49" t="e">
-        <f>VLOOKUP(M49,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>110</v>
       </c>
@@ -7383,12 +7379,11 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesSpecialOriginal Series</v>
       </c>
-      <c r="N50" t="e">
-        <f>VLOOKUP(M50,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>110</v>
       </c>
@@ -7429,12 +7424,11 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesSportsOriginal Series</v>
       </c>
-      <c r="N51" t="e">
-        <f>VLOOKUP(M51,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>110</v>
       </c>
@@ -7475,12 +7469,11 @@
         <f t="shared" si="0"/>
         <v>110Original SeriesTopicalsOriginal Series</v>
       </c>
-      <c r="N52" t="e">
-        <f>VLOOKUP(M52,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>111</v>
       </c>
@@ -7525,7 +7518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>111</v>
       </c>
@@ -7570,7 +7563,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>111</v>
       </c>
@@ -7615,7 +7608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>111</v>
       </c>
@@ -7663,7 +7656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>111</v>
       </c>
@@ -7708,7 +7701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>111</v>
       </c>
@@ -7753,7 +7746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>111</v>
       </c>
@@ -7798,7 +7791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>111</v>
       </c>
@@ -7843,7 +7836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>111</v>
       </c>
@@ -7888,7 +7881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>111</v>
       </c>
@@ -7933,7 +7926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>111</v>
       </c>
@@ -7978,7 +7971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>111</v>
       </c>
@@ -8023,7 +8016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>111</v>
       </c>
@@ -8068,7 +8061,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>112</v>
       </c>
@@ -8113,7 +8106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>112</v>
       </c>
@@ -8158,7 +8151,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>112</v>
       </c>
@@ -8203,7 +8196,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>112</v>
       </c>
@@ -8251,7 +8244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>112</v>
       </c>
@@ -8296,7 +8289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>112</v>
       </c>
@@ -8341,7 +8334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>112</v>
       </c>
@@ -8386,7 +8379,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>112</v>
       </c>
@@ -8431,7 +8424,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>112</v>
       </c>
@@ -8476,7 +8469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>112</v>
       </c>
@@ -8521,7 +8514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>112</v>
       </c>
@@ -8566,7 +8559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>112</v>
       </c>
@@ -8611,7 +8604,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>112</v>
       </c>
@@ -8697,9 +8690,8 @@
         <f t="shared" si="1"/>
         <v>113Original Movies (Anonymous Rex)DocumentaryOriginal Movies</v>
       </c>
-      <c r="N79" t="e">
-        <f>VLOOKUP(M79,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N79" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -8743,9 +8735,8 @@
         <f t="shared" si="1"/>
         <v>113Original Movies (Anonymous Rex)MoviesOriginal Movies</v>
       </c>
-      <c r="N80" t="e">
-        <f>VLOOKUP(M80,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N80" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -8789,12 +8780,14 @@
         <f t="shared" si="1"/>
         <v>113Original Movies (Anonymous Rex)OriginalOriginal Movies</v>
       </c>
-      <c r="N81" t="e">
-        <f>VLOOKUP(M81,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>113</v>
       </c>
@@ -8839,7 +8832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>113</v>
       </c>
@@ -8884,7 +8877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>113</v>
       </c>
@@ -8970,12 +8963,11 @@
         <f t="shared" si="1"/>
         <v>113Original Movies (Anonymous Rex)SeriesOriginal Movies</v>
       </c>
-      <c r="N85" t="e">
-        <f>VLOOKUP(M85,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>114</v>
       </c>
@@ -9061,9 +9053,8 @@
         <f t="shared" si="1"/>
         <v>115Acquired OriginalsMoviesAcquired Originals</v>
       </c>
-      <c r="N87" t="e">
-        <f>VLOOKUP(M87,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N87" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -9107,9 +9098,8 @@
         <f t="shared" si="1"/>
         <v>115Acquired OriginalsOriginalAcquired Originals</v>
       </c>
-      <c r="N88" t="e">
-        <f>VLOOKUP(M88,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N88" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -9153,9 +9143,8 @@
         <f t="shared" si="1"/>
         <v>115Acquired OriginalsOriginal MiniSeriesAcquired Originals</v>
       </c>
-      <c r="N89" t="e">
-        <f>VLOOKUP(M89,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N89" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -9199,9 +9188,8 @@
         <f t="shared" si="1"/>
         <v>115Acquired OriginalsSeriesAcquired Originals</v>
       </c>
-      <c r="N90" t="e">
-        <f>VLOOKUP(M90,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N90" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -9245,9 +9233,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)Bio/Clip (E)Original Series</v>
       </c>
-      <c r="N91" t="e">
-        <f>VLOOKUP(M91,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N91" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -9291,9 +9278,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)ConcertOriginal Series</v>
       </c>
-      <c r="N92" t="e">
-        <f>VLOOKUP(M92,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N92" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -9337,12 +9323,11 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)DocumentaryOriginal Series</v>
       </c>
-      <c r="N93" t="e">
-        <f>VLOOKUP(M93,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>116</v>
       </c>
@@ -9431,9 +9416,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)EventsOriginal Series</v>
       </c>
-      <c r="N95" t="e">
-        <f>VLOOKUP(M95,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N95" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -9477,9 +9461,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)MoviesOriginal Series</v>
       </c>
-      <c r="N96" t="e">
-        <f>VLOOKUP(M96,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N96" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -9523,9 +9506,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)OriginalOriginal Series</v>
       </c>
-      <c r="N97" t="e">
-        <f>VLOOKUP(M97,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N97" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -9569,9 +9551,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)Original SeriesOriginal Series</v>
       </c>
-      <c r="N98" t="e">
-        <f>VLOOKUP(M98,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N98" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -9615,9 +9596,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)PilotOriginal Series</v>
       </c>
-      <c r="N99" t="e">
-        <f>VLOOKUP(M99,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N99" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -9661,9 +9641,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)SeriesOriginal Series</v>
       </c>
-      <c r="N100" t="e">
-        <f>VLOOKUP(M100,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N100" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -9707,9 +9686,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)SpecialOriginal Series</v>
       </c>
-      <c r="N101" t="e">
-        <f>VLOOKUP(M101,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N101" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -9753,9 +9731,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)SportsOriginal Series</v>
       </c>
-      <c r="N102" t="e">
-        <f>VLOOKUP(M102,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N102" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -9799,9 +9776,8 @@
         <f t="shared" si="1"/>
         <v>116Syndicated Series - (SCI FI)TopicalsOriginal Series</v>
       </c>
-      <c r="N103" t="e">
-        <f>VLOOKUP(M103,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N103" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -9845,9 +9821,8 @@
         <f t="shared" si="1"/>
         <v>117PilotDocumentaryOriginal Movies</v>
       </c>
-      <c r="N104" t="e">
-        <f>VLOOKUP(M104,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N104" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -9891,9 +9866,8 @@
         <f t="shared" si="1"/>
         <v>117PilotMoviesOriginal Movies</v>
       </c>
-      <c r="N105" t="e">
-        <f>VLOOKUP(M105,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N105" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -9937,9 +9911,8 @@
         <f t="shared" si="1"/>
         <v>117PilotOriginalOriginal Movies</v>
       </c>
-      <c r="N106" t="e">
-        <f>VLOOKUP(M106,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N106" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -9983,9 +9956,8 @@
         <f t="shared" si="1"/>
         <v>117PilotOriginal MiniSeriesOriginal Movies</v>
       </c>
-      <c r="N107" t="e">
-        <f>VLOOKUP(M107,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N107" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -10029,9 +10001,8 @@
         <f t="shared" si="1"/>
         <v>117PilotOriginal SeriesOriginal Movies</v>
       </c>
-      <c r="N108" t="e">
-        <f>VLOOKUP(M108,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N108" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -10075,9 +10046,8 @@
         <f t="shared" si="1"/>
         <v>117PilotPilotOriginal Movies</v>
       </c>
-      <c r="N109" t="e">
-        <f>VLOOKUP(M109,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N109" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -10121,12 +10091,11 @@
         <f t="shared" si="1"/>
         <v>117PilotSeriesOriginal Movies</v>
       </c>
-      <c r="N110" t="e">
-        <f>VLOOKUP(M110,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>118</v>
       </c>
@@ -10174,7 +10143,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>118</v>
       </c>
@@ -10222,7 +10191,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>118</v>
       </c>
@@ -10270,7 +10239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>118</v>
       </c>
@@ -10318,7 +10287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>118</v>
       </c>
@@ -10366,7 +10335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>118</v>
       </c>
@@ -10414,7 +10383,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>118</v>
       </c>
@@ -10462,7 +10431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -10510,7 +10479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10558,7 +10527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -10606,7 +10575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>118</v>
       </c>
@@ -10654,7 +10623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>181</v>
       </c>
@@ -10702,7 +10671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>181</v>
       </c>
@@ -10750,7 +10719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>181</v>
       </c>
@@ -10798,7 +10767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>181</v>
       </c>
@@ -10847,18 +10816,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O125">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="N"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -10869,10 +10826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E65"/>
+    <sheetView topLeftCell="A75" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11549,7 +11506,7 @@
         <v>55</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" ref="F32:F94" si="1">CONCATENATE(A32,B32,C32,D32)</f>
+        <f t="shared" ref="F32:F96" si="1">CONCATENATE(A32,B32,C32,D32)</f>
         <v>111Original Series (Season 2-3)SportsOriginal Series</v>
       </c>
     </row>
@@ -12247,177 +12204,717 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
       <c r="F66" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>116Syndicated Series - (SCI FI)Original SeriesOriginal Series</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>116</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
       <c r="F67" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>116Syndicated Series - (SCI FI)ConcertOriginal Series</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>116Syndicated Series - (SCI FI)MoviesOriginal Series</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>117PilotOriginal SeriesOriginal Movies</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>115Acquired OriginalsOriginalAcquired Originals</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" t="s">
+        <v>55</v>
+      </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>115Acquired OriginalsSeriesAcquired Originals</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" t="s">
+        <v>55</v>
+      </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>116Syndicated Series - (SCI FI)Bio/Clip (E)Original Series</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>115</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" t="s">
+        <v>55</v>
+      </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>115Acquired OriginalsMoviesAcquired Originals</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" t="s">
+        <v>55</v>
+      </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>117PilotDocumentaryOriginal Movies</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>113</v>
+      </c>
+      <c r="B75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" t="s">
+        <v>55</v>
+      </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>113Original Movies (Anonymous Rex)SeriesOriginal Movies</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" t="s">
+        <v>55</v>
+      </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>116Syndicated Series - (SCI FI)SeriesOriginal Series</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
+      </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>116Syndicated Series - (SCI FI)SportsOriginal Series</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>115</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>115Acquired OriginalsOriginal MiniSeriesAcquired Originals</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>116</v>
+      </c>
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>55</v>
+      </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>116Syndicated Series - (SCI FI)DocumentaryOriginal Series</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" t="s">
+        <v>55</v>
+      </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+        <v>116Syndicated Series - (SCI FI)SpecialOriginal Series</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>117</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" t="s">
+        <v>55</v>
+      </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+        <v>117PilotPilotOriginal Movies</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>117</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" t="s">
+        <v>55</v>
+      </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+        <v>117PilotMoviesOriginal Movies</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
+        <v>55</v>
+      </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+        <v>116Syndicated Series - (SCI FI)TopicalsOriginal Series</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" t="s">
+        <v>55</v>
+      </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+        <v>110Original SeriesDocumentaryOriginal Series</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>110</v>
+      </c>
+      <c r="B85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+        <v>110Original SeriesSpecialOriginal Series</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+        <v>116Syndicated Series - (SCI FI)PilotOriginal Series</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>110</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
+      </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+        <v>110Original SeriesPilotOriginal Series</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>117</v>
+      </c>
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
+        <v>55</v>
+      </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+        <v>117PilotOriginal MiniSeriesOriginal Movies</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>117</v>
+      </c>
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" t="s">
+        <v>55</v>
+      </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+        <v>117PilotSeriesOriginal Movies</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>113</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+        <v>113Original Movies (Anonymous Rex)DocumentaryOriginal Movies</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" t="s">
+        <v>55</v>
+      </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+        <v>113Original Movies (Anonymous Rex)MoviesOriginal Movies</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>117</v>
+      </c>
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E92" t="s">
+        <v>55</v>
+      </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+        <v>117PilotOriginalOriginal Movies</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>110</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
+        <v>55</v>
+      </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+        <v>110Original SeriesSportsOriginal Series</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>116</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
+        <v>55</v>
+      </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>116Syndicated Series - (SCI FI)EventsOriginal Series</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>110Original SeriesSeriesOriginal Series</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>116</v>
+      </c>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>116Syndicated Series - (SCI FI)OriginalOriginal Series</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E97" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" ref="F97:F99" si="2">CONCATENATE(A97,B97,C97,D97)</f>
+        <v>110Original SeriesBio/Clip (E)Original Series</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>110</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="2"/>
+        <v>110Original SeriesOriginal SeriesOriginal Series</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>110</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>36</v>
+      </c>
+      <c r="E99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="2"/>
+        <v>110Original SeriesTopicalsOriginal Series</v>
       </c>
     </row>
   </sheetData>

--- a/MasterData/8. AmortTemplateChiller.xlsx
+++ b/MasterData/8. AmortTemplateChiller.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="60">
   <si>
     <t>AmortTemplateNo</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Acquired Link Series issue</t>
+  </si>
+  <si>
+    <t>UniqueKey</t>
   </si>
 </sst>
 </file>
@@ -5092,7 +5095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5149,6 +5154,9 @@
       </c>
       <c r="L1" t="s">
         <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
